--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -91917,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -92197,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92251,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92305,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92359,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92413,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1642"/>
+  <dimension ref="A1:R1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92425,6 +92425,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>181.3000030517578</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>187.3999938964844</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>180.4600067138672</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>185.8699951171875</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>185.8699951171875</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>37745921</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1643"/>
+  <dimension ref="A1:R1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91965,7 +91965,7 @@
         <v>23</v>
       </c>
       <c r="O1634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1634" t="n">
         <v>0</v>
@@ -92477,7 +92477,63 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>186.6499938964844</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>187.1399993896484</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>180.8000030517578</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>181.25</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>181.25</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>17813745</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1644"/>
+  <dimension ref="A1:R1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92533,7 +92533,387 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>182.3000030517578</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>180.2400054931641</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>9283078</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>184.3000030517578</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>178.6999969482422</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>181.7599945068359</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>181.7599945068359</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>15300459</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>181.3000030517578</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>184.6999969482422</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>179.1999969482422</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>182.6900024414062</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>182.6900024414062</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>11413171</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>182.9900054931641</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>184.9499969482422</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>177.9100036621094</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>179.4700012207031</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>179.4700012207031</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>10883214</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>180.7799987792969</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>178.6799926757812</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>178.6799926757812</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>11367721</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>182.7299957275391</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>13412203</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>180.3999938964844</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>179.6399993896484</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>180.5399932861328</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>180.5399932861328</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>11876642</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -92589,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92643,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92697,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92751,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92805,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92859,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92913,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1651"/>
+  <dimension ref="A1:R1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92929,6 +92929,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>181.9900054931641</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>190</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>181</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>189.3399963378906</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>189.3399963378906</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>35117376</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>191</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>191.1999969482422</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>185.0500030517578</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>185.0500030517578</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>20172441</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>189</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>189.6999969482422</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>185.2899932861328</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>185.2899932861328</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>15575143</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>186.1900024414062</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>182.8000030517578</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>183.6399993896484</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>183.6399993896484</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>9952987</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>183</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>186.1799926757812</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>184.3500061035156</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>184.3500061035156</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>7399400</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1656"/>
+  <dimension ref="A1:R1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92981,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93035,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93089,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93143,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93197,7 +93205,333 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>185</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>185.4900054931641</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>180.3600006103516</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>8737011</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>182</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>183.3800048828125</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>183.3800048828125</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>10668839</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>170.4700012207031</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>176.1199951171875</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>176.1199951171875</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>31541545</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>178.1999969482422</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>178.8699951171875</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>176.0099945068359</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>177.0700073242188</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>177.0700073242188</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>6941666</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>178</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>176.6600036621094</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>177.1300048828125</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>177.1300048828125</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>7366030</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>178.9499969482422</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>182.3699951171875</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>177</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>177.3399963378906</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>177.3399963378906</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>11965742</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1662"/>
+  <dimension ref="A1:R1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>1</v>
@@ -93029,7 +93029,7 @@
         <v>27</v>
       </c>
       <c r="O1653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1653" t="n">
         <v>0</v>
@@ -93261,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93315,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93369,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93423,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93477,29 +93485,31 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
-        <v>45489</v>
+        <v>45488</v>
       </c>
       <c r="B1662" t="n">
-        <v>178.9499969482422</v>
+        <v>178.25</v>
       </c>
       <c r="C1662" t="n">
-        <v>182.3699951171875</v>
+        <v>179.1499938964844</v>
       </c>
       <c r="D1662" t="n">
-        <v>177</v>
+        <v>174.1600036621094</v>
       </c>
       <c r="E1662" t="n">
-        <v>177.3399963378906</v>
+        <v>178.2200012207031</v>
       </c>
       <c r="F1662" t="n">
-        <v>177.3399963378906</v>
+        <v>178.2200012207031</v>
       </c>
       <c r="G1662" t="n">
-        <v>11965742</v>
+        <v>7613554</v>
       </c>
       <c r="H1662" t="n">
         <v>2024</v>
@@ -93508,7 +93518,7 @@
         <v>7</v>
       </c>
       <c r="J1662" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1662" t="n">
         <v>0</v>
@@ -93532,6 +93542,710 @@
         <v>0</v>
       </c>
       <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>178.9499969482422</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>182.3699951171875</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>177</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>177.3399963378906</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>177.3399963378906</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>11965742</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>177.0099945068359</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>177.0899963378906</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>173.5599975585938</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>173.5599975585938</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>7781301</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>172.9499969482422</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>173.3899993896484</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>169.0700073242188</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>169.0700073242188</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>10733712</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>168</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>172.8600006103516</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>166.3999938964844</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>171.5399932861328</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>171.5399932861328</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>10982909</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>172.3500061035156</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>159.3500061035156</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>168.2400054931641</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>168.2400054931641</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>13090043</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>175.1399993896484</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>168.2100067138672</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>174.4299926757812</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>174.4299926757812</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>11178623</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>178.6399993896484</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>171.7700042724609</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>176.1000061035156</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>176.1000061035156</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>14791706</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>177.8000030517578</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>177.9499969482422</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>175.6100006103516</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>176.6600036621094</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>176.6600036621094</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>4893874</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>190.3899993896484</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>178.0500030517578</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>187.0399932861328</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>187.0399932861328</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>40759273</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>187.9499969482422</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>192.1499938964844</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>187.0500030517578</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>188.8600006103516</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>188.8600006103516</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>17126857</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>188.9100036621094</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>194.3000030517578</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>188.9100036621094</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>192.1100006103516</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>192.1100006103516</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>16154061</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>192.8999938964844</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>187.5500030517578</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>190.4299926757812</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>190.4299926757812</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>13153852</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>186</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>197.8000030517578</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>184.3000030517578</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>195.3200073242188</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>195.3200073242188</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>33765840</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1675"/>
+  <dimension ref="A1:R1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93541,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93651,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93705,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93759,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93805,7 +93813,7 @@
         <v>30</v>
       </c>
       <c r="O1667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1667" t="n">
         <v>0</v>
@@ -93813,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93867,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93921,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93975,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94029,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94083,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94137,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94191,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94245,7 +94269,117 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>192.8899993896484</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>197.2899932861328</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>185.3200073242188</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>188.3099975585938</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>188.3099975585938</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>33410920</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>190.1000061035156</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>196.6399993896484</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>189.2700042724609</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>189.9100036621094</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>189.9100036621094</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>18911841</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1677"/>
+  <dimension ref="A1:R1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>1</v>
@@ -94325,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94379,7 +94381,387 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>193.5099945068359</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>199.75</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>191.0500030517578</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>197.8699951171875</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>197.8699951171875</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>16334341</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>200.8999938964844</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>193.0800018310547</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>193.6199951171875</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>193.6199951171875</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>16338322</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>196.25</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>197.6999969482422</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>192.3899993896484</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>192.6699981689453</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>192.6699981689453</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>7520604</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>195.6199951171875</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>189.0099945068359</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>194.4400024414062</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>194.4400024414062</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>9168119</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>195</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>187.0500030517578</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>187.9600067138672</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>187.9600067138672</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>8495576</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>188.6000061035156</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>188.6000061035156</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>184.4100036621094</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>185.8099975585938</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>185.8099975585938</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>6590045</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>187</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>187</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>194.8200073242188</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>194.8200073242188</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>14683411</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1684"/>
+  <dimension ref="A1:R1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94437,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94483,7 +94485,7 @@
         <v>32</v>
       </c>
       <c r="O1679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1679" t="n">
         <v>0</v>
@@ -94491,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94545,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94599,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94653,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94707,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94761,7 +94773,279 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>196.3999938964844</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>198.1699981689453</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>195.0099945068359</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>196.3200073242188</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>196.3200073242188</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>6305026</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>196.8899993896484</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>193.4199981689453</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>195.3200073242188</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>195.3200073242188</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>3969340</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>197.6000061035156</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>194.1000061035156</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>196.25</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>196.25</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>5334593</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>196.75</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>200.6900024414062</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>195.0200042724609</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>195.5500030517578</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>195.5500030517578</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>18387252</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>195.1999969482422</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>196</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>188.9700012207031</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>188.9700012207031</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>13446997</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1689"/>
+  <dimension ref="A1:R1694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -10886,7 +10886,7 @@
         <v>2</v>
       </c>
       <c r="R186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -13406,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="R231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="R313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -20014,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="R349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="R405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
       <c r="R435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -25670,7 +25670,7 @@
         <v>1</v>
       </c>
       <c r="R450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -26062,7 +26062,7 @@
         <v>2</v>
       </c>
       <c r="R457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -26398,7 +26398,7 @@
         <v>1</v>
       </c>
       <c r="R463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -27238,7 +27238,7 @@
         <v>1</v>
       </c>
       <c r="R478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -28582,7 +28582,7 @@
         <v>2</v>
       </c>
       <c r="R502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -29198,7 +29198,7 @@
         <v>2</v>
       </c>
       <c r="R513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -31998,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="R563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -34574,7 +34574,7 @@
         <v>1</v>
       </c>
       <c r="R609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -37766,7 +37766,7 @@
         <v>0</v>
       </c>
       <c r="R666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -41462,7 +41462,7 @@
         <v>0</v>
       </c>
       <c r="R732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -41966,7 +41966,7 @@
         <v>0</v>
       </c>
       <c r="R741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -43142,7 +43142,7 @@
         <v>1</v>
       </c>
       <c r="R762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -44598,7 +44598,7 @@
         <v>0</v>
       </c>
       <c r="R788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -58710,7 +58710,7 @@
         <v>0</v>
       </c>
       <c r="R1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -61342,7 +61342,7 @@
         <v>0</v>
       </c>
       <c r="R1087" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088">
@@ -77470,7 +77470,7 @@
         <v>1</v>
       </c>
       <c r="R1375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376">
@@ -79150,7 +79150,7 @@
         <v>1</v>
       </c>
       <c r="R1405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406">
@@ -80998,7 +80998,7 @@
         <v>1</v>
       </c>
       <c r="R1438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439">
@@ -84078,7 +84078,7 @@
         <v>2</v>
       </c>
       <c r="R1493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -84414,7 +84414,7 @@
         <v>0</v>
       </c>
       <c r="R1499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1500">
@@ -86038,7 +86038,7 @@
         <v>2</v>
       </c>
       <c r="R1528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -94829,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94883,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94937,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94991,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95045,7 +95053,279 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>190.7599945068359</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>186.3000030517578</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>9531606</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>190.2799987792969</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>195.9900054931641</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>189.4499969482422</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>195.5599975585938</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>195.5599975585938</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>19944502</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>196.3999938964844</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>205.4400024414062</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>203.5099945068359</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>203.5099945068359</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>53994365</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>203.4799957275391</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>206.3500061035156</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>199.2899932861328</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>205.7100067138672</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>205.7100067138672</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>27970653</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>206.3500061035156</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>208.7599945068359</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>202.8999938964844</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>203.6300048828125</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>203.6300048828125</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>15625394</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1694"/>
+  <dimension ref="A1:R1699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -10886,7 +10886,7 @@
         <v>2</v>
       </c>
       <c r="R186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -13406,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="R231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -20014,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="R349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="R405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
       <c r="R435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -25670,7 +25670,7 @@
         <v>1</v>
       </c>
       <c r="R450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -26062,7 +26062,7 @@
         <v>2</v>
       </c>
       <c r="R457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -26398,7 +26398,7 @@
         <v>1</v>
       </c>
       <c r="R463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -27238,7 +27238,7 @@
         <v>1</v>
       </c>
       <c r="R478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -28582,7 +28582,7 @@
         <v>2</v>
       </c>
       <c r="R502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -29198,7 +29198,7 @@
         <v>2</v>
       </c>
       <c r="R513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -31998,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="R563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -34574,7 +34574,7 @@
         <v>1</v>
       </c>
       <c r="R609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -37766,7 +37766,7 @@
         <v>0</v>
       </c>
       <c r="R666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667">
@@ -41462,7 +41462,7 @@
         <v>0</v>
       </c>
       <c r="R732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -41966,7 +41966,7 @@
         <v>0</v>
       </c>
       <c r="R741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742">
@@ -43142,7 +43142,7 @@
         <v>1</v>
       </c>
       <c r="R762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -44598,7 +44598,7 @@
         <v>0</v>
       </c>
       <c r="R788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789">
@@ -58710,7 +58710,7 @@
         <v>0</v>
       </c>
       <c r="R1040" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -61342,7 +61342,7 @@
         <v>0</v>
       </c>
       <c r="R1087" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088">
@@ -77470,7 +77470,7 @@
         <v>1</v>
       </c>
       <c r="R1375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376">
@@ -79150,7 +79150,7 @@
         <v>1</v>
       </c>
       <c r="R1405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406">
@@ -80998,7 +80998,7 @@
         <v>1</v>
       </c>
       <c r="R1438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -84078,7 +84078,7 @@
         <v>2</v>
       </c>
       <c r="R1493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
@@ -84414,7 +84414,7 @@
         <v>0</v>
       </c>
       <c r="R1499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500">
@@ -86038,7 +86038,7 @@
         <v>2</v>
       </c>
       <c r="R1528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529">
@@ -95109,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>2</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95163,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95217,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95271,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95325,7 +95333,279 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>206</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>206</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>203.4100036621094</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>203.4100036621094</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>7970314</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>204.0500030517578</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>207.8000030517578</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>203.4199981689453</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>205.8600006103516</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>205.8600006103516</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>10928702</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>205.8200073242188</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>208.6000061035156</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>206.8500061035156</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>206.8500061035156</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>18267154</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>207.1999969482422</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>206.6000061035156</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>209.3399963378906</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>209.3399963378906</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>18412659</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>209.3200073242188</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>206.1999969482422</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>207.9600067138672</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>207.9600067138672</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>16843883</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1699"/>
+  <dimension ref="A1:R1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95389,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95443,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95497,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95551,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95605,7 +95613,279 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>207.9900054931641</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>213.9400024414062</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>207.8500061035156</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>213.5200042724609</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>213.5200042724609</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>18544014</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>214.1000061035156</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>217.3000030517578</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>212.6000061035156</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>214.6100006103516</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>214.6100006103516</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>14229854</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>216.6000061035156</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>210.8800048828125</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>211.8500061035156</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>211.8500061035156</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>8310394</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>215.0500030517578</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>219.6000061035156</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>214.25</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>216.5200042724609</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>216.5200042724609</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>17156414</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>220.6999969482422</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>216.0599975585938</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>219.0700073242188</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>219.0700073242188</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>9469326</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95669,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95723,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95777,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95831,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95885,7 +95893,279 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>219.5099945068359</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>222.2700042724609</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>216.4400024414062</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>220.9299926757812</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>220.9299926757812</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>9019252</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>226.2799987792969</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>219.6000061035156</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>16758314</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>221.9900054931641</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>229.1000061035156</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>220.7599945068359</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>228.0700073242188</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>228.0700073242188</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>24545474</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>230.2899932861328</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>221.5700073242188</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>13100758</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>226.4499969482422</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>233.2700042724609</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>226.0099945068359</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>231.3500061035156</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>231.3500061035156</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>21689148</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1709"/>
+  <dimension ref="A1:R1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95949,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -96003,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96057,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96111,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96165,7 +96173,279 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>231.8500061035156</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>240.25</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>231.1999969482422</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>239.3699951171875</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>239.3699951171875</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>17229006</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>209.0500030517578</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>211.6100006103516</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>211.6100006103516</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>121892360</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>209</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>210.2799987792969</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>202.5200042724609</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>202.5200042724609</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>71971589</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>202.6999969482422</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>210.75</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>202.6900024414062</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>208.6600036621094</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>208.6600036621094</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>61377352</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>209.7700042724609</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>213.6000061035156</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>203.6499938964844</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>206.25</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>206.25</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>37085367</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,225 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>206</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>207.3800048828125</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>202.6600036621094</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>204.2799987792969</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>204.2799987792969</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>21703577</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>204.2799987792969</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>209.6000061035156</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>202.8500061035156</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>208.3399963378906</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>208.3399963378906</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>12907273</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>205</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>211.6999969482422</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>204.1900024414062</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>208.9900054931641</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>208.9900054931641</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>18521611</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>211</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>205.6000061035156</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>207.9499969482422</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>207.9499969482422</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>14313186</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1718"/>
+  <dimension ref="A1:R1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96277,7 +96277,7 @@
         <v>39</v>
       </c>
       <c r="O1711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1711" t="n">
         <v>0</v>
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96617,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96671,7 +96677,171 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>208.8000030517578</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>212.3899993896484</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>197.1999969482422</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>198.9700012207031</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>198.9700012207031</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>18012330</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>205.3999938964844</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>204.5899963378906</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>204.5899963378906</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>9840977</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>206</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>209</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>202.9199981689453</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>203.4700012207031</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>203.4700012207031</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>10226292</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1721"/>
+  <dimension ref="A1:R1728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96733,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96787,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96841,7 +96845,387 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>205.8000030517578</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>205.8999938964844</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>200.9799957275391</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>202.3699951171875</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>202.3699951171875</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>6936763</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>205.25</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>202.1900024414062</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>204.5899963378906</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>204.5899963378906</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>5203315</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>203.9900054931641</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>204.1600036621094</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>192.0599975585938</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>196.1799926757812</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>196.1799926757812</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>24232368</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>196.1799926757812</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>196.1799926757812</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>189.3000030517578</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>191.6000061035156</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>191.6000061035156</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>16202650</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>191</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>195.4900054931641</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>190</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>194.6499938964844</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>194.6499938964844</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>9816205</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>194.6499938964844</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>194.8000030517578</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>188.0099945068359</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>191.1600036621094</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>191.1600036621094</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>8275172</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>186.7100067138672</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>5223502</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1728"/>
+  <dimension ref="A1:R1733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96901,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96955,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -97009,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97063,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97117,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97171,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97225,7 +97237,279 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>190.9600067138672</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>191.75</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>186.5099945068359</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>187.1100006103516</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>187.1100006103516</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>4088919</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>187.1000061035156</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>187.8200073242188</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>178.2700042724609</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>179.1600036621094</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>179.1600036621094</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>8543480</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>179.1600036621094</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>184</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>176.8300018310547</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>182.8200073242188</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>182.8200073242188</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>7669712</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>186.1000061035156</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>181.6399993896484</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>184.4199981689453</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>184.4199981689453</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>5256532</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>189.9499969482422</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>189.9499969482422</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>176.1000061035156</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>180.7599945068359</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>180.7599945068359</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>14257278</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1733"/>
+  <dimension ref="A1:R1738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97293,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97347,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97401,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97455,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97509,7 +97517,279 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>180.75</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>183.8999938964844</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>178.3699951171875</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>182.4400024414062</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>182.4400024414062</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>10510684</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>182.4400024414062</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>183.1199951171875</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>177.3600006103516</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>179.8899993896484</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>179.8899993896484</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>4995779</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>179.8899993896484</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>180.8200073242188</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>175.7899932861328</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>176.2799987792969</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>176.2799987792969</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>7662753</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>177</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>174.8200073242188</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>177.7599945068359</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>177.7599945068359</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>8074955</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>179.1300048828125</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>178</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>179.4100036621094</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>179.4100036621094</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>1348217</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1738"/>
+  <dimension ref="A1:R1743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97573,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97627,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97681,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97735,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97789,7 +97797,279 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>179.3000030517578</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>179.3000030517578</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>171.6600036621094</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>173.0399932861328</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>173.0399932861328</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>7269202</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>173.8000030517578</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>173.9900054931641</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>169.6900024414062</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>173.1499938964844</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>173.1499938964844</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>6910677</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>175.4700012207031</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>177.9499969482422</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>173.8600006103516</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>177.3699951171875</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>177.3699951171875</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>6112577</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>177.3699951171875</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>178.8999938964844</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>173.5700073242188</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>174.0099945068359</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>174.0099945068359</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>4871088</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>173.9499969482422</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>174.4799957275391</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>170.5299987792969</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>171.0700073242188</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>171.0700073242188</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>4424792</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1743"/>
+  <dimension ref="A1:R1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97853,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97907,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97961,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98015,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98069,7 +98077,225 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>170.2400054931641</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>168.6399993896484</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>169.3800048828125</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>169.3800048828125</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>3778397</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>170.9900054931641</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>171.3000030517578</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>166.2299957275391</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>166.2299957275391</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>5484152</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>166</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>166.2700042724609</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>162</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>162.7200012207031</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>162.7200012207031</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>4718700</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>161.1000061035156</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>161.5099945068359</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>161.5099945068359</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>3791381</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1747"/>
+  <dimension ref="A1:R1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98133,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98187,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98241,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98295,7 +98301,225 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>163.2299957275391</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>161.3200073242188</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>161.3200073242188</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>3637405</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>165.7599945068359</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>162.4900054931641</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>162.4900054931641</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>4422526</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>162.4900054931641</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>159.1100006103516</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>161.3300018310547</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>161.3300018310547</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>3609853</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>163.5099945068359</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>160.5299987792969</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>163.1100006103516</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>163.1100006103516</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>3107060</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1751"/>
+  <dimension ref="A1:R1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98357,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98411,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98465,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98519,7 +98525,279 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>167.0899963378906</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>166.4600067138672</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>166.4600067138672</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>3632299</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>166</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>168.1900024414062</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>165.6900024414062</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>166.1300048828125</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>166.1300048828125</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>2920537</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>167</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>172.8899993896484</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>166.3300018310547</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>171.7100067138672</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>171.7100067138672</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>6853687</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>171.6999969482422</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>174.8999938964844</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>174.8999938964844</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>7619020</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>176</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>177.9100036621094</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>173.2899932861328</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>176.1900024414062</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>176.1900024414062</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>4495280</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1756"/>
+  <dimension ref="A1:R1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98461,7 +98461,7 @@
         <v>47</v>
       </c>
       <c r="O1750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1750" t="n">
         <v>0</v>
@@ -98581,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98635,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98689,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98743,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98797,7 +98805,225 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>179.0700073242188</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>173.6799926757812</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>178.1900024414062</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>178.1900024414062</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>6077950</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>179</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>180.4799957275391</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>177.7400054931641</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>178.1000061035156</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>178.1000061035156</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>4605350</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>181.5200042724609</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>183.3500061035156</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>176.6000061035156</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>178.1699981689453</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>178.1699981689453</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>13542803</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>176.3200073242188</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>178.1499938964844</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>178.1499938964844</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>3984259</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1760"/>
+  <dimension ref="A1:R1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>1</v>
@@ -98861,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98915,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98969,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99023,7 +99029,581 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>178.1499938964844</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>185.7899932861328</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>177.6999969482422</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>184.9600067138672</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>10846115</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>184.9600067138672</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>187</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>183.5200042724609</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>184.1300048828125</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>7095677</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>185.1499938964844</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>187.9799957275391</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>184.1600036621094</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>186.1300048828125</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>8010978</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>186.4199981689453</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>192.6000061035156</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>185.8600006103516</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>190.2799987792969</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>10775090</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>190.8999938964844</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>191.9400024414062</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>188.6100006103516</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>5391760</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>188</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>190.2899932861328</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>185.8300018310547</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>189.4299926757812</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>5140628</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>188.6999969482422</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>191.3800048828125</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>187.1999969482422</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>189.7100067138672</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>3001411</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>189.6499938964844</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>189.6499938964844</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>185.4799957275391</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>185.7799987792969</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>3347746</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>185.0099945068359</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>185.3899993896484</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>182.7299957275391</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>183.1499938964844</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>3205376</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>178</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>185.3000030517578</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>178</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>184.9299926757812</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>3096075</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>185.0099945068359</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>187.2700042724609</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>175.5500030517578</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>177.4499969482422</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>4985613</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1771"/>
+  <dimension ref="A1:R1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>1</v>
@@ -99083,7 +99083,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99135,7 +99137,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99187,7 +99191,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99231,7 +99237,7 @@
         <v>50</v>
       </c>
       <c r="O1764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1764" t="n">
         <v>0</v>
@@ -99239,7 +99245,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99291,7 +99299,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99343,7 +99353,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99395,7 +99407,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99447,7 +99461,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99499,7 +99515,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99551,7 +99569,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99603,7 +99623,165 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>179</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>176.0500030517578</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>177.1300048828125</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>2893710</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>176.1100006103516</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>181.6100006103516</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>175.2899932861328</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>177.1499938964844</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>3291216</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>177.1999969482422</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>180.8000030517578</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>180.1699981689453</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>3989880</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1774"/>
+  <dimension ref="A1:R1780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>1</v>
@@ -99677,7 +99677,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99729,7 +99731,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99781,7 +99785,321 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>179.0099945068359</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>182.4299926757812</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>179</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>180.6199951171875</v>
+      </c>
+      <c r="F1775" t="inlineStr"/>
+      <c r="G1775" t="n">
+        <v>2376338</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>180.6300048828125</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>183.9299926757812</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>178.1999969482422</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>178.8399963378906</v>
+      </c>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="n">
+        <v>4605770</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>178.8200073242188</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>182.7400054931641</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>177.7799987792969</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>181.7799987792969</v>
+      </c>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="n">
+        <v>3167459</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>179.6900024414062</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>180.2200012207031</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>2520879</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>180.5399932861328</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>181.5500030517578</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>177.0599975585938</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>181.1900024414062</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>2814817</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>181.3500061035156</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>182.6300048828125</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>175.8999938964844</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>177.0200042724609</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>2589598</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1780"/>
+  <dimension ref="A1:R1785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99839,7 +99839,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99891,7 +99893,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99943,7 +99947,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99995,7 +100001,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100047,7 +100055,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100099,7 +100109,269 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>179.8200073242188</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>173</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>173.6300048828125</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>7309023</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>169.0599975585938</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>173.7299957275391</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>6044285</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>174.3000030517578</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>170.1100006103516</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>173.8800048828125</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>4180288</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>174.3000030517578</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>178.9499969482422</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>173.0399932861328</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>5301026</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>173.4299926757812</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>167.8999938964844</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>168.1900024414062</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>3623264</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1785"/>
+  <dimension ref="A1:R1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100163,7 +100163,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100215,7 +100217,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100267,7 +100271,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100319,7 +100325,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100371,7 +100379,269 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>165</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>167.6000061035156</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>160.8699951171875</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>4566001</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>163.2400054931641</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>167.6799926757812</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>163.2400054931641</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>166.8300018310547</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>3706333</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>167.9299926757812</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>169.6499938964844</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>164.8899993896484</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>2994810</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>172.1000061035156</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>171.0099945068359</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>2620632</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>173.7200012207031</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>170</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>172.6999969482422</v>
+      </c>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="n">
+        <v>2523060</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1790"/>
+  <dimension ref="A1:R1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100433,7 +100433,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100485,7 +100487,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100537,7 +100541,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100589,7 +100595,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100641,7 +100649,269 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>174.3500061035156</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>174.3500061035156</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>172.9799957275391</v>
+      </c>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="n">
+        <v>2373321</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>172.9799957275391</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>174.25</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>169.0899963378906</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>170.1900024414062</v>
+      </c>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="n">
+        <v>3252863</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>170.0099945068359</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>170.1000061035156</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>168.1799926757812</v>
+      </c>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="n">
+        <v>3562943</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>167.8099975585938</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>168.4700012207031</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>166.5399932861328</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>167.4499969482422</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>2492263</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>171.9900054931641</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>174.7200012207031</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>168.5899963378906</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>169.3300018310547</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>21785775</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1795"/>
+  <dimension ref="A1:R1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100425,7 +100425,7 @@
         <v>3</v>
       </c>
       <c r="O1786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1786" t="n">
         <v>0</v>
@@ -100703,7 +100703,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100755,7 +100757,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100807,7 +100811,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100859,7 +100865,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100911,7 +100919,61 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>162.1199951171875</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>163.4900054931641</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>4838808</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1796"/>
+  <dimension ref="A1:R1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100973,7 +100973,529 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>163.2807043904869</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>168.0396324841722</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>158.8390452295478</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>165.7791442871094</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>4533409</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>165.8683734071478</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>178.3506338714337</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>165.8683734071478</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>177.5376586914062</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>12670335</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>177.4682525512924</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>177.9044897825476</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>171.5691712044206</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>173.7899932861328</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>5780293</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>174.5500030517578</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>173.1999969482422</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>4274131</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>175</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>175.5500030517578</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>166.2799987792969</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>168.3600006103516</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>4720491</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>166.0200042724609</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>169.6799926757812</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>6074009</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>174.8999938964844</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>169.6600036621094</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>173.4400024414062</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>3247453</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>181.5399932861328</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>179.6699981689453</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>8492785</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>180.6499938964844</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>183.75</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>179.9499969482422</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>182.8300018310547</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>6134942</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>183.0899963378906</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>185.1499938964844</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>180.1100006103516</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>182.2400054931641</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>4238158</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1806"/>
+  <dimension ref="A1:R1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101019,7 +101019,7 @@
         <v>5</v>
       </c>
       <c r="O1797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1797" t="n">
         <v>1</v>
@@ -101027,7 +101027,9 @@
       <c r="Q1797" t="n">
         <v>1</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101079,7 +101081,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101131,7 +101135,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101183,7 +101189,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101235,7 +101243,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101287,7 +101297,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101339,7 +101351,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101391,7 +101405,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101443,7 +101459,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101495,7 +101513,61 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>183</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>183.1499938964844</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>176.2100067138672</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>176.7899932861328</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>3517646</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101505,7 +101505,7 @@
         <v>6</v>
       </c>
       <c r="O1806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1806" t="n">
         <v>0</v>
@@ -101567,7 +101567,477 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>177.6600036621094</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>177.8999938964844</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>169.8699951171875</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>171.3800048828125</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>4954937</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>170</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>173.4199981689453</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>166.2100067138672</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>171.8099975585938</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>3679502</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>172.1499938964844</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>169.0500030517578</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>169.6000061035156</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>2939542</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>170.1499938964844</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>170.9700012207031</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>161.9400024414062</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>163.9299926757812</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>3587242</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>159.7599945068359</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>167.2100067138672</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>4352960</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>167</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>167.4199981689453</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>161.5099945068359</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>164.6300048828125</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>4345661</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>164</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>170.3300018310547</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>163.1799926757812</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>169.4499969482422</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>4175975</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>170.0800018310547</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>170.4700012207031</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>165.3699951171875</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>169.7299957275391</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>4748425</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>172.1900024414062</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>166.3399963378906</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>168.9199981689453</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>4102596</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1816"/>
+  <dimension ref="A1:R1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101621,7 +101621,9 @@
       <c r="Q1808" t="n">
         <v>1</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101673,7 +101675,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101725,7 +101729,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101777,7 +101783,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101829,7 +101837,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101881,7 +101891,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -101933,7 +101945,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -101985,7 +101999,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102037,7 +102053,477 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>167.8200073242188</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>164.2299957275391</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>3427628</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>164</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>167.6000061035156</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>161.6999969482422</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>166.2400054931641</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>4040595</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>165.5099945068359</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>153.4600067138672</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>9872288</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>156.1699981689453</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>162.4900054931641</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>155.9299926757812</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>17438779</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>156.2799987792969</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>157.8200073242188</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>152</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>154.6900024414062</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>4800862</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>154.6900024414062</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>155.7899932861328</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>151</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>152.8200073242188</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>6105064</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>153.0500030517578</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>159</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>158.25</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>5232895</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>160.7400054931641</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>163.3000030517578</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>5308139</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>163.2599945068359</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>162</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>163.9299926757812</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>3940560</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IEX.NS.xlsx
+++ b/stock_historical_data/1d/IEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1825"/>
+  <dimension ref="A1:R1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102107,7 +102107,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102159,7 +102161,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102211,7 +102215,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102263,7 +102269,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102315,7 +102323,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102359,7 +102369,7 @@
         <v>10</v>
       </c>
       <c r="O1822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1822" t="n">
         <v>0</v>
@@ -102367,7 +102377,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102419,7 +102431,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102471,7 +102485,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102523,7 +102539,477 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>164</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>164.9900054931641</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>158</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>159.0599975585938</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>4310024</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>157.1000061035156</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>155.1499938964844</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>157.9900054931641</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>2734358</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>158.2400054931641</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>159.7400054931641</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>154.6100006103516</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>156.4900054931641</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>3303576</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>157.1000061035156</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>157.3999938964844</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>153.2299957275391</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>153.5599975585938</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>2171253</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>153.6999969482422</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>163.2200012207031</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>153.3600006103516</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>162.6699981689453</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>16416328</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>162.6699981689453</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>162.6699981689453</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>162.6699981689453</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>162.6699981689453</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>163.3300018310547</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>169</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>162.3300018310547</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>167.9600067138672</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>4509322</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>168</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>165.6999969482422</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>167.5800018310547</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>3327739</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>167.8500061035156</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>172.9700012207031</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>172.6699981689453</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>6126904</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
